--- a/biology/Botanique/Phedimus_spurius/Phedimus_spurius.xlsx
+++ b/biology/Botanique/Phedimus_spurius/Phedimus_spurius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sedum spurium, ou Phedimus spurius, nommée vernaculairement Orpin bâtard[1] en France, est une espèce de sédum, plante basse semi-stolonifère de la famille des Crassulacées, formant des tapis d'une quinzaine de centimètres d'épaisseur.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sedum spurium, ou Phedimus spurius, nommée vernaculairement Orpin bâtard en France, est une espèce de sédum, plante basse semi-stolonifère de la famille des Crassulacées, formant des tapis d'une quinzaine de centimètres d'épaisseur.
 L'orpin bâtard est utilisé comme plante décorative vivace succulente à feuilles semi-persistantes, plantée notamment dans les jardins de rocailles ou comme couvre-sol.
 Il en existe diverses formes utilisées par les horticulteurs. Cette plante grasse résiste à la chaleur et au froid jusqu'à −20 °C.
 </t>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Orpin bâtard a des feuilles simples et alternes ovales 2 à 3 cm de longueur qui sont regroupées en rosette et un système racinaire rampant. C'est une plante vivace très rustique qui peut atteindre 50 cm de hauteur.
 Feuilles vert plus ou moins foncé, spatulées et obovales, opposées, décussées (légèrement dentées sur la moitié supérieure, ou entières).
@@ -548,7 +562,9 @@
           <t>Multiplication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut se faire par semis ou bouture de tiges.
 </t>
@@ -579,7 +595,9 @@
           <t>Distribution, habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante originaire des cailloutis rocheux de montagnes d'Europe centrale (du nord et ouest du Caucase à l'Iran en passant par les zones alpines d'Arménie). Elle est surtout présente dans la moitié nord-est de la France.
 </t>
@@ -610,7 +628,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait partie des sédums utilisés pour les toitures végétales.
 </t>
@@ -641,7 +661,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Phedimus spurius (M. Bieb) 't Hart, 1995
 Anacampseros ciliaris Haw. (CD_NOM=82232)
